--- a/caso 1.xlsx
+++ b/caso 1.xlsx
@@ -39085,10 +39085,10 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="19" t="n">
-        <v>54323.72577981073</v>
+        <v>0</v>
       </c>
       <c r="B2" s="19" t="n">
-        <v>24279.5913933813</v>
+        <v>0</v>
       </c>
       <c r="C2" s="19" t="n">
         <v>68919.21689481987</v>

--- a/caso 1.xlsx
+++ b/caso 1.xlsx
@@ -32539,10 +32539,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="n">
-        <v>215.4701547331178</v>
+        <v>52232.65377498252</v>
       </c>
       <c r="D2" s="8" t="n">
-        <v>10.77545774155622</v>
+        <v>28337.66514088915</v>
       </c>
       <c r="E2" s="12" t="n"/>
       <c r="F2" s="12" t="n"/>
@@ -32573,10 +32573,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="n">
-        <v>8752.393188657838</v>
+        <v>10.40446664394481</v>
       </c>
       <c r="D3" s="8" t="n">
-        <v>131871.9976828748</v>
+        <v>104.0634985240737</v>
       </c>
       <c r="E3" s="12" t="n"/>
       <c r="F3" s="12" t="n"/>
@@ -32607,10 +32607,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="8" t="n">
-        <v>986.0868392523603</v>
+        <v>986.1085073555032</v>
       </c>
       <c r="D4" s="8" t="n">
-        <v>-2398.989988908818</v>
+        <v>-2399.044159572955</v>
       </c>
       <c r="E4" s="12" t="n"/>
       <c r="F4" s="12" t="n"/>
@@ -32641,10 +32641,10 @@
         <v>3</v>
       </c>
       <c r="C5" s="8" t="n">
-        <v>6962.880410473709</v>
+        <v>215.4701547331178</v>
       </c>
       <c r="D5" s="8" t="n">
-        <v>414.4526330803891</v>
+        <v>10.77545774155622</v>
       </c>
       <c r="E5" s="12" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -39108,22 +39108,22 @@
     </row>
     <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="16" t="n">
-        <v>0</v>
+        <v>54323.72577981073</v>
       </c>
       <c r="B2" s="16" t="n">
-        <v>0</v>
+        <v>24279.5913933813</v>
       </c>
       <c r="C2" s="16" t="n">
-        <v>215.4701547331178</v>
+        <v>53444.63690371509</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>10.77545774155622</v>
+        <v>26053.45993758182</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>54108.25562507761</v>
+        <v>879.0888760956441</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>24268.81593563974</v>
+        <v>-23423.80676856727</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>

--- a/caso 1.xlsx
+++ b/caso 1.xlsx
@@ -39114,16 +39114,16 @@
         <v>24279.5913933813</v>
       </c>
       <c r="C2" s="16" t="n">
-        <v>53444.63690371509</v>
+        <v>56074.29007272964</v>
       </c>
       <c r="D2" s="16" t="n">
-        <v>26053.45993758182</v>
+        <v>27121.94202977533</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>879.0888760956441</v>
+        <v>-1750.5643</v>
       </c>
       <c r="F2" s="16" t="n">
-        <v>-23423.80676856727</v>
+        <v>-2842.3506</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1"/>
